--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value201.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value201.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.011945527971736</v>
+        <v>1.449328780174255</v>
       </c>
       <c r="B1">
-        <v>1.531901996091225</v>
+        <v>3.611166477203369</v>
       </c>
       <c r="C1">
-        <v>2.335004858122763</v>
+        <v>6.244411945343018</v>
       </c>
       <c r="D1">
-        <v>2.595538094712698</v>
+        <v>1.519080877304077</v>
       </c>
       <c r="E1">
-        <v>1.220566117990734</v>
+        <v>0.8900896906852722</v>
       </c>
     </row>
   </sheetData>
